--- a/Project1/Project1/Stage02.xlsx
+++ b/Project1/Project1/Stage02.xlsx
@@ -90,7 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -119,26 +119,19 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -149,85 +142,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -618,7 +532,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2491,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -2787,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -2799,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -3089,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
         <v>4</v>
@@ -3649,43 +3563,47 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:T10">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="between">
       <formula>3</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
       <formula>2</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>0</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>3</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>6</formula>
       <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>7</formula>
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1/Project1/Stage02.xlsx
+++ b/Project1/Project1/Stage02.xlsx
@@ -90,34 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -149,54 +122,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -532,7 +457,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
@@ -1218,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
@@ -1520,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -1822,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -2052,7 +1977,7 @@
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2124,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2354,7 +2279,7 @@
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2426,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -2656,7 +2581,7 @@
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2728,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -3563,45 +3488,45 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:T10">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>3</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>2</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>0</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>3</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>7</formula>
       <formula>7</formula>
     </cfRule>

--- a/Project1/Project1/Stage02.xlsx
+++ b/Project1/Project1/Stage02.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>

--- a/Project1/Project1/Stage02.xlsx
+++ b/Project1/Project1/Stage02.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
